--- a/shell_FEM/Livro2.xlsx
+++ b/shell_FEM/Livro2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\shell_FEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35E2E9-4ABD-4CCF-AFDA-A2EDC7EF74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE5A6D-89BB-4F0D-AD4D-150B55E36270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -4376,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFFF1FA-C62B-4B59-8919-F5A7A9E45D64}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5503,8 +5503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="76" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5678,7 +5678,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>30</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="10"/>
       <c r="Q3" s="5"/>

--- a/shell_FEM/Livro2.xlsx
+++ b/shell_FEM/Livro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\shell_FEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE5A6D-89BB-4F0D-AD4D-150B55E36270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CDD4D-9113-4FCC-BFC0-8A012680B67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -5504,7 +5504,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="10">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="L2" s="10">
         <f>SQRT((D3-D2)^2+(C3-C2)^2)</f>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3" si="1">SQRT((D4-D3)^2+(C4-C3)^2)</f>

--- a/shell_FEM/Livro2.xlsx
+++ b/shell_FEM/Livro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\shell_FEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CDD4D-9113-4FCC-BFC0-8A012680B67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE9DC5-EFDA-46F7-9BE6-CBF6B5430634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -5504,7 +5504,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5618,19 +5618,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
       </c>
       <c r="I2" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" s="10">
         <v>1</v>
       </c>
       <c r="K2" s="10">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="L2" s="10">
         <f>SQRT((D3-D2)^2+(C3-C2)^2)</f>
@@ -5673,7 +5673,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="1"/>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>29.9</v>
+        <v>30.01</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3" si="1">SQRT((D4-D3)^2+(C4-C3)^2)</f>

--- a/shell_FEM/Livro2.xlsx
+++ b/shell_FEM/Livro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\shell_FEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE9DC5-EFDA-46F7-9BE6-CBF6B5430634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94D038-873F-4AD2-AF8B-7246EC694942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -5504,7 +5504,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
